--- a/SE3910/Lessons/PortfolioExercise.xlsx
+++ b/SE3910/Lessons/PortfolioExercise.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="18195" windowHeight="12330"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>Project</t>
   </si>
@@ -124,13 +124,31 @@
   </si>
   <si>
     <t>carbon extraction from seawater to generate fuel using Fischer-Tropsch process</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>COST OF SELECTED PROJECTS</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>TRL x Benefit \ Cost &gt; 9.3</t>
+  </si>
+  <si>
+    <t>TRL x Benefit \ Cost &lt; 9.3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +160,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -263,6 +289,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -354,7 +386,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -389,7 +420,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,14 +595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.5703125" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
@@ -582,7 +612,7 @@
     <col min="7" max="7" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="54.75" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -604,8 +634,11 @@
       <c r="G1" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -621,10 +654,18 @@
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <f>C2*D2/B2</f>
+        <v>14.285714285714285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,10 +681,18 @@
       <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H24" si="0">C3*D3/B3</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -659,10 +708,18 @@
       <c r="E4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -678,10 +735,18 @@
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>9.2727272727272734</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -697,10 +762,18 @@
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -716,10 +789,18 @@
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -735,10 +816,18 @@
       <c r="E8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -754,10 +843,18 @@
       <c r="E9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -773,10 +870,18 @@
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>8.647058823529413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -792,10 +897,18 @@
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,10 +924,18 @@
       <c r="E12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -830,10 +951,18 @@
       <c r="E13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>16.891891891891891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,10 +978,18 @@
       <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>15.750000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,10 +1005,18 @@
       <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>12.571428571428573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -887,10 +1032,18 @@
       <c r="E16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>9.0666666666666664</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="30">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -906,10 +1059,18 @@
       <c r="E17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>10.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -925,10 +1086,18 @@
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="30">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -944,10 +1113,18 @@
       <c r="E19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>12.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -963,10 +1140,18 @@
       <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
@@ -982,10 +1167,18 @@
       <c r="E21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -1001,10 +1194,18 @@
       <c r="E22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>7.7142857142857153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1020,10 +1221,18 @@
       <c r="E23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>8.5333333333333332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="30">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>
@@ -1039,17 +1248,25 @@
       <c r="E24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>10.666666666666668</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="8" t="s">
         <v>31</v>
       </c>
@@ -1061,7 +1278,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" thickBot="1">
       <c r="A27" s="10" t="s">
         <v>32</v>
       </c>
@@ -1072,54 +1289,60 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="13">
+        <f>SUMIF(F2:F24,"Y",B2:B24)</f>
+        <v>24.6</v>
+      </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="1"/>
       <c r="B29" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="B32" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
